--- a/three_color_scale.xlsx
+++ b/three_color_scale.xlsx
@@ -472,7 +472,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A10">
+  <conditionalFormatting sqref="A1:XFD1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
